--- a/biology/Botanique/Corydalis/Corydalis.xlsx
+++ b/biology/Botanique/Corydalis/Corydalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydalis est un genre de plantes herbacées annuelles ou vivaces de la famille des Fumariaceae selon la classification classique, ou de celle des Papaveraceae selon la classification phylogénétique (APGIII). Les feuilles sont composées, la fleur possède deux lèvres avec un pétale supérieur muni d'un éperon qui lui donne un aspect allongé. Le fruit est une longue gousse.
 C'est l'un des genres de « Corydale ».
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot corydale vient du grec ancien κορυδός (korudós) ou κορυδαλλός (korudallós), cette plante présentant un pétale supérieur en forme d'éperon qui ressemble à l'aigrette des alouettes (le mot grec ancien κορυδός signifie alouette huppée). 
 </t>
@@ -543,11 +557,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon GRIN :
 Corydalis cava (L.) Schweigg. &amp; Körte
-Selon NCBI  (9 oct. 2011)[1] :
+Selon NCBI  (9 oct. 2011) :
 Corydalis ambigua
 Corydalis bracteata
 Corydalis cashmeriana
@@ -584,7 +600,7 @@
 Corydalis uniflora
 Corydalis wilsonii
 Corydalis yanhusuo
-Selon ITIS      (9 oct. 2011)[2] :
+Selon ITIS      (9 oct. 2011) :
 Corydalis aurea Willd.
 Corydalis caseana Gray
 Corydalis crystallina Engelm.
@@ -622,7 +638,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont composées, la fleur possède deux lèvres avec un pétale supérieur muni d'un éperon qui lui donne un aspect allongé. Le fruit est une gousse.
 </t>
@@ -653,7 +671,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Principalement dans les régions tempérées de l'hémisphère nord.
 </t>
@@ -684,7 +704,9 @@
           <t>Homonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les Pseudofumaria et les Ceratocapnos ont comme nom de genre vernaculaire Corydale mais ne font pas partie du genre Corydalis : 
 Corydale jaune - Pseudofumaria lutea
